--- a/data/trans_dic/LAWTONB_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Edad-trans_dic.xlsx
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,53</t>
+          <t>23,12; 30,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,12; 31,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,19</t>
+          <t>18,0; 24,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,77; 38,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,82; 42,23</t>
+          <t>34,77; 42,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,89; 39,27</t>
+          <t>32,24; 39,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,46</t>
+          <t>28,16; 33,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,78; 36,06</t>
+          <t>30,69; 36,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,63</t>
+          <t>26,79; 32,06</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,53</t>
+          <t>23,12; 30,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,12; 31,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,19</t>
+          <t>18,0; 24,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,77; 38,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,82; 42,23</t>
+          <t>34,77; 42,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,89; 39,27</t>
+          <t>32,24; 39,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,46</t>
+          <t>28,16; 33,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,78; 36,06</t>
+          <t>30,69; 36,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,63</t>
+          <t>26,79; 32,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/LAWTONB_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,12; 30,51</t>
+          <t>22,54; 30,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,12; 31,07</t>
+          <t>22,73; 31,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,0; 24,0</t>
+          <t>18,09; 24,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,77; 38,03</t>
+          <t>30,8; 38,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,77; 42,27</t>
+          <t>34,75; 42,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,24; 39,48</t>
+          <t>31,88; 39,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,16; 33,79</t>
+          <t>28,33; 33,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,69; 36,03</t>
+          <t>30,86; 36,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,79; 32,06</t>
+          <t>27,05; 32,03</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,12; 30,51</t>
+          <t>22,54; 30,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,12; 31,07</t>
+          <t>22,73; 31,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,0; 24,0</t>
+          <t>18,09; 24,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,77; 38,03</t>
+          <t>30,8; 38,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,77; 42,27</t>
+          <t>34,75; 42,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,24; 39,48</t>
+          <t>31,88; 39,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,16; 33,79</t>
+          <t>28,33; 33,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,69; 36,03</t>
+          <t>30,86; 36,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,79; 32,06</t>
+          <t>27,05; 32,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/LAWTONB_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014</t>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,54; 30,2</t>
+          <t>22,74; 30,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,12</t>
+          <t>22,85; 30,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,09; 24,64</t>
+          <t>17,9; 24,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,8; 38,09</t>
+          <t>30,92; 38,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>34,75; 42,0</t>
+          <t>34,82; 42,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,88; 39,81</t>
+          <t>31,89; 39,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,33; 33,64</t>
+          <t>28,38; 33,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,86; 36,22</t>
+          <t>30,78; 36,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,05; 32,03</t>
+          <t>26,61; 31,63</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,54; 30,2</t>
+          <t>22,74; 30,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,12</t>
+          <t>22,85; 30,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,09; 24,64</t>
+          <t>17,9; 24,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,8; 38,09</t>
+          <t>30,92; 38,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,75; 42,0</t>
+          <t>34,82; 42,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,88; 39,81</t>
+          <t>31,89; 39,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,33; 33,64</t>
+          <t>28,38; 33,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,86; 36,22</t>
+          <t>30,78; 36,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,05; 32,03</t>
+          <t>26,61; 31,63</t>
         </is>
       </c>
     </row>
